--- a/src/main/webapp/resources/dbsql/datas/products.xlsx
+++ b/src/main/webapp/resources/dbsql/datas/products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="상품" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>PD_NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +81,64 @@
   </si>
   <si>
     <t>스낵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관람권</t>
+  </si>
+  <si>
+    <t>골드클래스</t>
+  </si>
+  <si>
+    <t>4DX관람권</t>
+  </si>
+  <si>
+    <t>IMAX 관람권</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>즐거운 경험은 Cinepop에서!</t>
+  </si>
+  <si>
+    <t>최고의 관람환경을 제공하는 프리미엄 상영관</t>
+  </si>
+  <si>
+    <t>오감만족 영화 속 주인공 되기</t>
+  </si>
+  <si>
+    <t>사람이 볼 수 있는 최대영상, IMAX</t>
+  </si>
+  <si>
+    <t>PD_IMAGENAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movievoucher.png</t>
+  </si>
+  <si>
+    <t>goldclass.png</t>
+  </si>
+  <si>
+    <t>4dx.png</t>
+  </si>
+  <si>
+    <t>imax.png</t>
+  </si>
+  <si>
+    <t>고소팝콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>originalPopcorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식 팝콘 No.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -450,25 +508,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,16 +544,104 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -502,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/main/webapp/resources/dbsql/datas/products.xlsx
+++ b/src/main/webapp/resources/dbsql/datas/products.xlsx
@@ -40,9 +40,6 @@
     <t>PD_PRICE</t>
   </si>
   <si>
-    <t>PD_IMAGEURL</t>
-  </si>
-  <si>
     <t>PD_DESCRIPTION</t>
   </si>
   <si>
@@ -139,6 +136,10 @@
   </si>
   <si>
     <t>클래식 팝콘 No.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD_IMAGEFILESIZE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -510,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,7 +521,7 @@
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="2" bestFit="1" customWidth="1"/>
@@ -541,101 +542,116 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>5000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>102</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>11000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>35000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>19000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>16000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -665,39 +681,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/resources/dbsql/datas/products.xlsx
+++ b/src/main/webapp/resources/dbsql/datas/products.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>PD_NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,19 +127,164 @@
     <t>imax.png</t>
   </si>
   <si>
+    <t>PD_IMAGEFILESIZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>고소팝콘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>originalPopcorn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래식 팝콘 No.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD_IMAGEFILESIZE</t>
+  </si>
+  <si>
+    <t>originalPopcorn.png</t>
+  </si>
+  <si>
+    <t>옥수수 본연의 맛을 즐길 수 있는 짭짜름한 클래식 고소팝콘!</t>
+  </si>
+  <si>
+    <t>달콤팝콘</t>
+  </si>
+  <si>
+    <t>sweetPopcorn.png</t>
+  </si>
+  <si>
+    <t>달콤한 카라멜 향이 가득한 달콤팝콘을 즐겨보세요!</t>
+  </si>
+  <si>
+    <t>더블치즈팝콘</t>
+  </si>
+  <si>
+    <t>doubleCheesePopcorn.png</t>
+  </si>
+  <si>
+    <t>치즈매니아들이라면 놓칠 수 없는 바로 그 팝콘!</t>
+  </si>
+  <si>
+    <t>바질어니언팝콘</t>
+  </si>
+  <si>
+    <t>basilOnionPopcorn.png</t>
+  </si>
+  <si>
+    <t>수많은 매니아를 보유한 바로 그 팝콘! 중독성 200%</t>
+  </si>
+  <si>
+    <t>sodaM.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sodaL.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>americanoC.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>americanoH.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planeHotdog.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>butteredSquid.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chilieCheeseHotdog.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matBam.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료(M)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료(L)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노(ICE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노(HOT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheeseNacho.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레인핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠리치즈핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터오징어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠리치즈나초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바삭바삭한 나쵸에 칠리치즈의 조합, 여기가 멕시코인가요?</t>
+  </si>
+  <si>
+    <t>톡톡 쏘는 탄산음료!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size Up! 기쁨도 Up!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음이 편해지는 따뜻한 아메리카노 한 잔!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼛 속까지 시원해지는 아이스 아메리카노</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 느낌 물씬나는 플레인핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게감을 더했다! 칠리치즈 핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터에 오징어는 못참지!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝콘만큼 고소~한 맛밤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +317,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,6 +362,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE2E2E2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE2E2E2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE2E2E2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE2E2E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -218,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,6 +395,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,21 +683,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -542,10 +716,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -559,19 +733,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>11000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44560</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -582,16 +759,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>11000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>35000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44560</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -602,16 +782,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>19000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44560</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -622,16 +805,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>19000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>16000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44560</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -639,19 +825,298 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>16000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>5000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4500</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>117</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44560</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/resources/dbsql/datas/products.xlsx
+++ b/src/main/webapp/resources/dbsql/datas/products.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donghan\git\cinepop\src\main\webapp\resources\dbsql\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23550" windowHeight="5910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상품" sheetId="1" r:id="rId1"/>
     <sheet name="상품카테고리" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1:U15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,10 +49,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기프트카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,207 +76,213 @@
     <t>영화관람권</t>
   </si>
   <si>
-    <t>골드클래스</t>
+    <t>IMAX 관람권</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>즐거운 경험은 Cinepop에서!</t>
+  </si>
+  <si>
+    <t>최고의 관람환경을 제공하는 프리미엄 상영관</t>
+  </si>
+  <si>
+    <t>오감만족 영화 속 주인공 되기</t>
+  </si>
+  <si>
+    <t>사람이 볼 수 있는 최대영상, IMAX</t>
+  </si>
+  <si>
+    <t>PD_IMAGENAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movievoucher.png</t>
+  </si>
+  <si>
+    <t>goldclass.png</t>
+  </si>
+  <si>
+    <t>4dx.png</t>
+  </si>
+  <si>
+    <t>imax.png</t>
+  </si>
+  <si>
+    <t>PD_IMAGEFILESIZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고소팝콘</t>
+  </si>
+  <si>
+    <t>originalPopcorn.png</t>
+  </si>
+  <si>
+    <t>옥수수 본연의 맛을 즐길 수 있는 짭짜름한 클래식 고소팝콘!</t>
+  </si>
+  <si>
+    <t>달콤팝콘</t>
+  </si>
+  <si>
+    <t>sweetPopcorn.png</t>
+  </si>
+  <si>
+    <t>달콤한 카라멜 향이 가득한 달콤팝콘을 즐겨보세요!</t>
+  </si>
+  <si>
+    <t>더블치즈팝콘</t>
+  </si>
+  <si>
+    <t>doubleCheesePopcorn.png</t>
+  </si>
+  <si>
+    <t>치즈매니아들이라면 놓칠 수 없는 바로 그 팝콘!</t>
+  </si>
+  <si>
+    <t>바질어니언팝콘</t>
+  </si>
+  <si>
+    <t>basilOnionPopcorn.png</t>
+  </si>
+  <si>
+    <t>수많은 매니아를 보유한 바로 그 팝콘! 중독성 200%</t>
+  </si>
+  <si>
+    <t>sodaM.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sodaL.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>americanoC.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>americanoH.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planeHotdog.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>butteredSquid.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chilieCheeseHotdog.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matBam.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료(M)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료(L)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노(ICE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노(HOT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheeseNacho.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레인핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠리치즈핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터오징어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠리치즈나초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바삭바삭한 나쵸에 칠리치즈의 조합, 여기가 멕시코인가요?</t>
+  </si>
+  <si>
+    <t>톡톡 쏘는 탄산음료!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size Up! 기쁨도 Up!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음이 편해지는 따뜻한 아메리카노 한 잔!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼛 속까지 시원해지는 아이스 아메리카노</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 느낌 물씬나는 플레인핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게감을 더했다! 칠리치즈 핫도그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터에 오징어는 못참지!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝콘만큼 고소~한 맛밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드클래스관람권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4DX관람권</t>
-  </si>
-  <si>
-    <t>IMAX 관람권</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>즐거운 경험은 Cinepop에서!</t>
-  </si>
-  <si>
-    <t>최고의 관람환경을 제공하는 프리미엄 상영관</t>
-  </si>
-  <si>
-    <t>오감만족 영화 속 주인공 되기</t>
-  </si>
-  <si>
-    <t>사람이 볼 수 있는 최대영상, IMAX</t>
-  </si>
-  <si>
-    <t>PD_IMAGENAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>movievoucher.png</t>
-  </si>
-  <si>
-    <t>goldclass.png</t>
-  </si>
-  <si>
-    <t>4dx.png</t>
-  </si>
-  <si>
-    <t>imax.png</t>
-  </si>
-  <si>
-    <t>PD_IMAGEFILESIZE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고소팝콘</t>
-  </si>
-  <si>
-    <t>originalPopcorn.png</t>
-  </si>
-  <si>
-    <t>옥수수 본연의 맛을 즐길 수 있는 짭짜름한 클래식 고소팝콘!</t>
-  </si>
-  <si>
-    <t>달콤팝콘</t>
-  </si>
-  <si>
-    <t>sweetPopcorn.png</t>
-  </si>
-  <si>
-    <t>달콤한 카라멜 향이 가득한 달콤팝콘을 즐겨보세요!</t>
-  </si>
-  <si>
-    <t>더블치즈팝콘</t>
-  </si>
-  <si>
-    <t>doubleCheesePopcorn.png</t>
-  </si>
-  <si>
-    <t>치즈매니아들이라면 놓칠 수 없는 바로 그 팝콘!</t>
-  </si>
-  <si>
-    <t>바질어니언팝콘</t>
-  </si>
-  <si>
-    <t>basilOnionPopcorn.png</t>
-  </si>
-  <si>
-    <t>수많은 매니아를 보유한 바로 그 팝콘! 중독성 200%</t>
-  </si>
-  <si>
-    <t>sodaM.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sodaL.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>americanoC.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>americanoH.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>planeHotdog.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>butteredSquid.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chilieCheeseHotdog.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>matBam.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
-    <t>B02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B03</t>
-  </si>
-  <si>
-    <t>B03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료(M)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄산음료(L)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아메리카노(ICE)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아메리카노(HOT)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cheeseNacho.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레인핫도그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠리치즈핫도그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터오징어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠리치즈나초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛밤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바삭바삭한 나쵸에 칠리치즈의 조합, 여기가 멕시코인가요?</t>
-  </si>
-  <si>
-    <t>톡톡 쏘는 탄산음료!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size Up! 기쁨도 Up!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음이 편해지는 따뜻한 아메리카노 한 잔!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼛 속까지 시원해지는 아이스 아메리카노</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미국 느낌 물씬나는 플레인핫도그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무게감을 더했다! 칠리치즈 핫도그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버터에 오징어는 못참지!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝콘만큼 고소~한 맛밤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관람권</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -733,19 +731,19 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>11000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3">
         <v>44560</v>
@@ -756,19 +754,19 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2">
         <v>35000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3">
         <v>44560</v>
@@ -779,19 +777,19 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2">
         <v>19000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3">
         <v>44560</v>
@@ -802,19 +800,19 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>16000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3">
         <v>44560</v>
@@ -825,19 +823,19 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>5000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
         <v>44560</v>
@@ -848,19 +846,19 @@
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>6000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3">
         <v>44560</v>
@@ -871,19 +869,19 @@
         <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>6000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="3">
         <v>44560</v>
@@ -894,19 +892,19 @@
         <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3">
         <v>44560</v>
@@ -917,19 +915,19 @@
         <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>2500</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3">
         <v>44560</v>
@@ -940,19 +938,19 @@
         <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2">
         <v>3000</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3">
         <v>44560</v>
@@ -963,19 +961,19 @@
         <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>3500</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3">
         <v>44560</v>
@@ -986,19 +984,19 @@
         <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2">
         <v>4000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3">
         <v>44560</v>
@@ -1009,19 +1007,19 @@
         <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2">
         <v>4500</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3">
         <v>44560</v>
@@ -1032,19 +1030,19 @@
         <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2">
         <v>5000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="3">
         <v>44560</v>
@@ -1055,19 +1053,19 @@
         <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2">
         <v>3500</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3">
         <v>44560</v>
@@ -1078,19 +1076,19 @@
         <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2">
         <v>4900</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17" s="3">
         <v>44560</v>
@@ -1101,19 +1099,19 @@
         <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>3500</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="3">
         <v>44560</v>
@@ -1130,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,31 +1152,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
